--- a/teaching/traditional_assets/database/data/norway/norway_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_insurance_general.xlsx
@@ -591,106 +591,106 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0838</v>
+        <v>0.10235</v>
       </c>
       <c r="E2">
-        <v>0.0806</v>
+        <v>0.0586</v>
       </c>
       <c r="F2">
-        <v>0.08779999999999999</v>
+        <v>-0.08410000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1416852154790957</v>
+        <v>0.2537134576261739</v>
       </c>
       <c r="H2">
-        <v>0.1416852154790957</v>
+        <v>0.2537134576261739</v>
       </c>
       <c r="I2">
-        <v>0.2198503580144279</v>
+        <v>0.1884179137753254</v>
       </c>
       <c r="J2">
-        <v>0.2011181306298376</v>
+        <v>0.1523075230380273</v>
       </c>
       <c r="K2">
-        <v>669.5999999999999</v>
+        <v>541.3000000000001</v>
       </c>
       <c r="L2">
-        <v>0.1795703826865832</v>
+        <v>0.1508513780899033</v>
       </c>
       <c r="M2">
-        <v>397.724</v>
+        <v>649.4200000000001</v>
       </c>
       <c r="N2">
-        <v>0.03623017571986846</v>
+        <v>0.05534279262005199</v>
       </c>
       <c r="O2">
-        <v>0.5939725209080049</v>
+        <v>1.199741363384445</v>
       </c>
       <c r="P2">
-        <v>396.7</v>
+        <v>648.1</v>
       </c>
       <c r="Q2">
-        <v>0.03613689570675096</v>
+        <v>0.05523030380501939</v>
       </c>
       <c r="R2">
-        <v>0.5924432497013142</v>
+        <v>1.197302789580639</v>
       </c>
       <c r="S2">
-        <v>1.023999999999982</v>
+        <v>1.32000000000005</v>
       </c>
       <c r="T2">
-        <v>0.002574649757117956</v>
+        <v>0.002032582920144205</v>
       </c>
       <c r="U2">
-        <v>271.7</v>
+        <v>307.59</v>
       </c>
       <c r="V2">
-        <v>0.02475017535549341</v>
+        <v>0.02621245046657293</v>
       </c>
       <c r="W2">
-        <v>0.0628816288016525</v>
+        <v>0.2283490371435035</v>
       </c>
       <c r="X2">
-        <v>0.05040023240313261</v>
+        <v>0.04363630283617281</v>
       </c>
       <c r="Y2">
-        <v>0.0124813963985199</v>
+        <v>0.1847127343073307</v>
       </c>
       <c r="Z2">
-        <v>1.405329011833873</v>
+        <v>1.318840047044987</v>
       </c>
       <c r="AA2">
-        <v>0.1215401151174187</v>
+        <v>0.1757044250720492</v>
       </c>
       <c r="AB2">
-        <v>0.04714866984150531</v>
+        <v>0.04085646650120132</v>
       </c>
       <c r="AC2">
-        <v>0.07439144527591335</v>
+        <v>0.1348479585708479</v>
       </c>
       <c r="AD2">
-        <v>434.9</v>
+        <v>410.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>434.9</v>
+        <v>410.3</v>
       </c>
       <c r="AG2">
-        <v>163.2</v>
+        <v>102.71</v>
       </c>
       <c r="AH2">
-        <v>0.03810700453884303</v>
+        <v>0.0337840063236941</v>
       </c>
       <c r="AI2">
-        <v>0.1284709913742172</v>
+        <v>0.1277755286350472</v>
       </c>
       <c r="AJ2">
-        <v>0.01464872676354693</v>
+        <v>0.008676875716490624</v>
       </c>
       <c r="AK2">
-        <v>0.05241689417054761</v>
+        <v>0.03537442612562036</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.5078827513721826</v>
+        <v>0.5819858156028369</v>
       </c>
       <c r="AP2">
-        <v>0.1905874109541049</v>
+        <v>0.1456879432624113</v>
       </c>
     </row>
     <row r="3">
@@ -722,106 +722,106 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0356</v>
+        <v>0.0267</v>
       </c>
       <c r="E3">
-        <v>0.0806</v>
+        <v>0.0513</v>
       </c>
       <c r="F3">
-        <v>0.08779999999999999</v>
+        <v>-0.08410000000000001</v>
       </c>
       <c r="G3">
-        <v>0.1594896331738437</v>
+        <v>0.3015653775322283</v>
       </c>
       <c r="H3">
-        <v>0.1594896331738437</v>
+        <v>0.3015653775322283</v>
       </c>
       <c r="I3">
-        <v>0.2546417501730312</v>
+        <v>0.2021507498026835</v>
       </c>
       <c r="J3">
-        <v>0.2112485329962986</v>
+        <v>0.1579189686924494</v>
       </c>
       <c r="K3">
-        <v>707.3</v>
+        <v>480.1</v>
       </c>
       <c r="L3">
-        <v>0.2128434293280371</v>
+        <v>0.1578860826098395</v>
       </c>
       <c r="M3">
-        <v>397.72</v>
+        <v>649.4200000000001</v>
       </c>
       <c r="N3">
-        <v>0.03791637271912597</v>
+        <v>0.05816517541266984</v>
       </c>
       <c r="O3">
-        <v>0.56230736603987</v>
+        <v>1.352676525723808</v>
       </c>
       <c r="P3">
-        <v>396.7</v>
+        <v>648.1</v>
       </c>
       <c r="Q3">
-        <v>0.03781913169485385</v>
+        <v>0.05804694987057886</v>
       </c>
       <c r="R3">
-        <v>0.5608652622649513</v>
+        <v>1.349927098521141</v>
       </c>
       <c r="S3">
-        <v>1.019999999999982</v>
+        <v>1.32000000000005</v>
       </c>
       <c r="T3">
-        <v>0.002564618324449316</v>
+        <v>0.002032582920144205</v>
       </c>
       <c r="U3">
-        <v>260.3</v>
+        <v>300.6</v>
       </c>
       <c r="V3">
-        <v>0.02481552805689553</v>
+        <v>0.02692318026708225</v>
       </c>
       <c r="W3">
-        <v>0.2588377369538168</v>
+        <v>0.175706338749817</v>
       </c>
       <c r="X3">
-        <v>0.04766397341309263</v>
+        <v>0.04110110972333884</v>
       </c>
       <c r="Y3">
-        <v>0.2111737635407242</v>
+        <v>0.1346052290264781</v>
       </c>
       <c r="Z3">
-        <v>1.469487927832316</v>
+        <v>1.278990536277603</v>
       </c>
       <c r="AA3">
-        <v>0.3104271690103476</v>
+        <v>0.2019768664563617</v>
       </c>
       <c r="AB3">
-        <v>0.04695490022797837</v>
+        <v>0.04046753711324791</v>
       </c>
       <c r="AC3">
-        <v>0.2634722687823692</v>
+        <v>0.1615093293431138</v>
       </c>
       <c r="AD3">
-        <v>298</v>
+        <v>277.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>298</v>
+        <v>277.5</v>
       </c>
       <c r="AG3">
-        <v>37.69999999999999</v>
+        <v>-23.10000000000002</v>
       </c>
       <c r="AH3">
-        <v>0.02762482155106884</v>
+        <v>0.02425148130669603</v>
       </c>
       <c r="AI3">
-        <v>0.09833360831545949</v>
+        <v>0.09898694442462723</v>
       </c>
       <c r="AJ3">
-        <v>0.003581233198126738</v>
+        <v>-0.002073236402800217</v>
       </c>
       <c r="AK3">
-        <v>0.01360912569489567</v>
+        <v>-0.009229662777688996</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.3380601247872944</v>
+        <v>0.4324450677886862</v>
       </c>
       <c r="AP3">
-        <v>0.04276800907543958</v>
+        <v>-0.03599812996727446</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Protector Forsikring ASA (OB:PROTCT)</t>
+          <t>Protector Forsikring ASA (OB:PROT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,34 +853,37 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.132</v>
+        <v>0.178</v>
+      </c>
+      <c r="E4">
+        <v>0.0659</v>
       </c>
       <c r="G4">
-        <v>-0.004115327747658945</v>
+        <v>-0.01205479452054794</v>
       </c>
       <c r="H4">
-        <v>-0.004115327747658945</v>
+        <v>-0.01205479452054794</v>
       </c>
       <c r="I4">
-        <v>-0.06505667816658452</v>
+        <v>0.1121461187214612</v>
       </c>
       <c r="J4">
-        <v>-0.06505667816658452</v>
+        <v>0.0936986301369863</v>
       </c>
       <c r="K4">
-        <v>-37.7</v>
+        <v>61.2</v>
       </c>
       <c r="L4">
-        <v>-0.0929029078363726</v>
+        <v>0.1117808219178082</v>
       </c>
       <c r="M4">
-        <v>0.004</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>8.191685439279132e-06</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.0001061007957559682</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,64 +892,61 @@
         <v>-0</v>
       </c>
       <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>0.004</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
       <c r="U4">
-        <v>11.4</v>
+        <v>6.99</v>
       </c>
       <c r="V4">
-        <v>0.02334630350194553</v>
+        <v>0.01227608008429926</v>
       </c>
       <c r="W4">
-        <v>-0.1330744793505118</v>
+        <v>0.2809917355371901</v>
       </c>
       <c r="X4">
-        <v>0.05313649139317259</v>
+        <v>0.04617149594900677</v>
       </c>
       <c r="Y4">
-        <v>-0.1862109707436844</v>
+        <v>0.2348202395881833</v>
       </c>
       <c r="Z4">
-        <v>1.035204081632653</v>
+        <v>1.594815030585493</v>
       </c>
       <c r="AA4">
-        <v>-0.06734693877551021</v>
+        <v>0.1494319836877367</v>
       </c>
       <c r="AB4">
-        <v>0.04734243945503226</v>
+        <v>0.04124539588915473</v>
       </c>
       <c r="AC4">
-        <v>-0.1146893782305425</v>
+        <v>0.1081865877985819</v>
       </c>
       <c r="AD4">
-        <v>136.9</v>
+        <v>132.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>136.9</v>
+        <v>132.8</v>
       </c>
       <c r="AG4">
-        <v>125.5</v>
+        <v>125.81</v>
       </c>
       <c r="AH4">
-        <v>0.2189699296225208</v>
+        <v>0.1891199088578752</v>
       </c>
       <c r="AI4">
-        <v>0.3859599661685931</v>
+        <v>0.325729703213147</v>
       </c>
       <c r="AJ4">
-        <v>0.2044639947865755</v>
+        <v>0.1809669020871391</v>
       </c>
       <c r="AK4">
-        <v>0.365569472764346</v>
+        <v>0.3139677073195079</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-5.432539682539683</v>
+        <v>2.097946287519747</v>
       </c>
       <c r="AP4">
-        <v>-4.98015873015873</v>
+        <v>1.987519747235387</v>
       </c>
     </row>
   </sheetData>
